--- a/pred_ohlcv/54_21/2019-10-28 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 PAY ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>117874.0347244353</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>119074.0347244353</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>123310.0347244353</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>120786.4421244353</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>120889.0456244353</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>120791.6491244353</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>90943.19442443532</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>143814.6392244353</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>143850.7231244353</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>101891.6342244353</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>91396.01902443531</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>91396.01902443531</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>91406.01902443531</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>54857.36192443532</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>54579.36192443532</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>54589.36192443532</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>47334.36192443532</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>47696.76232443532</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>47408.76232443532</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>46423.76232443532</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>46433.76232443532</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>47232.76232443532</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>53567.76232443532</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>50767.76232443532</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>79006.26892443531</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>79405.87862443531</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>68120.45502443532</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>67996.34802443531</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>68106.34802443531</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>79267.92442443532</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>129205.5382936804</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>134212.7473936804</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>95287.84149368042</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>92758.70619368042</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>78770.09369368042</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>84118.90559368042</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>83318.90559368042</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>85440.90559368042</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>85440.90559368042</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>113529.2509936804</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>72868.05999368044</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>72878.15999368044</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>73209.10589368045</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>69768.82399368045</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>69784.73649368045</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>63667.00629368045</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>63678.00629368045</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>11411.44999368046</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4991.449993680457</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>21544.49899368046</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-47589.34780631954</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-47006.76550631954</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-86382.59020631954</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-78432.49020631953</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-76608.49930631953</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-19108.49930631953</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-22963.15980631953</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-24763.15980631953</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-23761.90980631953</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-17951.90980631953</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-10649.90980631953</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4150.453106319527</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2321.148693680473</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>3930.924041315608</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>65325.73534131561</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-18945.95384770625</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>392703.8960522937</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>380204.5884522937</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>367312.0592522937</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>402193.0401522937</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>528086.5966522938</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>531114.7533522937</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>487816.7424394225</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>503599.7263394225</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>507476.4529394225</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>502247.4655394225</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>547481.5086394225</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>446437.4780394225</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>651532.6092394225</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>990017.0199076826</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>948766.5126076825</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>930461.5697076825</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1028548.462716016</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>914653.8685160157</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>914653.8685160157</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1103712.056616016</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1103712.056616016</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1065160.420616016</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>983396.2716160158</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>832762.7552160159</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>834385.8630591531</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>834318.8630591531</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>803416.7876591531</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>819526.5606591532</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 PAY ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>121191.6491244353</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>121991.6491244353</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>112327.2607244353</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>108516.2607244353</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>143814.6392244353</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>46433.76232443532</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>53567.76232443532</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>79006.26892443531</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>166684.3796936804</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>9116.449993680457</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>10592.44999368046</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>7944.498993680457</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>21944.49899368046</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>21544.49899368046</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-47589.34780631954</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-78432.49020631953</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-76608.49930631953</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-19108.49930631953</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-24763.15980631953</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-23761.90980631953</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-17951.90980631953</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-10649.90980631953</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4550.453106319527</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4150.453106319527</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2321.148693680473</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>392703.8960522937</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>380204.5884522937</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>367312.0592522937</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>402193.0401522937</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>544856.9854522938</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>528086.5966522938</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>533832.2432522938</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>531114.7533522937</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>551560.9206394225</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>487816.7424394225</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>503599.7263394225</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>507476.4529394225</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>502247.4655394225</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>547481.5086394225</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>446437.4780394225</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>651532.6092394225</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>990017.0199076826</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>948766.5126076825</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>930461.5697076825</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1028548.462716016</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>914653.8685160157</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>914653.8685160157</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1103712.056616016</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1065160.420616016</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>983396.2716160158</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>848291.5733160159</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>832762.7552160159</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>834385.8630591531</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>834318.8630591531</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>803416.7876591531</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
